--- a/Output/Tables/h1_results.xlsx
+++ b/Output/Tables/h1_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,6 +428,16 @@
           <t>var</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>name2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -441,42 +451,53 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.909</v>
+        <v>2.007</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.135538439536458</t>
+          <t>0.109786837851994</t>
         </is>
       </c>
       <c r="E2">
-        <v>0.142301092922968</v>
+        <v>0.1250748451902961</v>
       </c>
       <c r="F2">
-        <v>18058</v>
+        <v>17877</v>
       </c>
       <c r="G2">
-        <v>1.674914702141718</v>
+        <v>1.801251879661963</v>
       </c>
       <c r="H2">
-        <v>2.143085297858282</v>
+        <v>2.212748120338037</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>1.671242947453375</v>
+        <v>1.800168550609874</v>
       </c>
       <c r="K2">
-        <v>2.143361410431206</v>
+        <v>2.211240226132549</v>
       </c>
       <c r="L2">
-        <v>1.90730217894229</v>
+        <v>2.005704388371211</v>
       </c>
       <c r="M2">
-        <v>0.09167348795686056</v>
+        <v>0.07981974281993699</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -491,42 +512,53 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.729</v>
+        <v>0.91</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0844581046655242</t>
+          <t>0.0810811661067596</t>
         </is>
       </c>
       <c r="E3">
-        <v>0.06758662120045676</v>
+        <v>0.06774352886704478</v>
       </c>
       <c r="F3">
-        <v>61135</v>
+        <v>55488</v>
       </c>
       <c r="G3">
-        <v>0.6178200081252486</v>
+        <v>0.7985618950137113</v>
       </c>
       <c r="H3">
-        <v>0.8401799918747513</v>
+        <v>1.021438104986289</v>
       </c>
       <c r="I3">
         <v>20</v>
       </c>
       <c r="J3">
-        <v>0.6172347262835062</v>
+        <v>0.7996287411941914</v>
       </c>
       <c r="K3">
-        <v>0.8409320784181419</v>
+        <v>1.024177049098357</v>
       </c>
       <c r="L3">
-        <v>0.729083402350824</v>
+        <v>0.9119028951462744</v>
       </c>
       <c r="M3">
-        <v>0.04343637905526906</v>
+        <v>0.04360161318527497</v>
       </c>
       <c r="N3">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -541,42 +573,53 @@
         </is>
       </c>
       <c r="C4">
-        <v>1.74</v>
+        <v>1.912</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0756219277897171</t>
+          <t>0.0785632550862939</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.07815239278728524</v>
+        <v>0.07691966893576119</v>
       </c>
       <c r="F4">
-        <v>33608</v>
+        <v>32130</v>
       </c>
       <c r="G4">
-        <v>1.611439313864916</v>
+        <v>1.785467144600673</v>
       </c>
       <c r="H4">
-        <v>1.868560686135084</v>
+        <v>2.038532855399327</v>
       </c>
       <c r="I4">
         <v>12</v>
       </c>
       <c r="J4">
-        <v>1.611423865235291</v>
+        <v>1.782207598440835</v>
       </c>
       <c r="K4">
-        <v>1.869400580813747</v>
+        <v>2.041025534377213</v>
       </c>
       <c r="L4">
-        <v>1.740412223024519</v>
+        <v>1.911616566409024</v>
       </c>
       <c r="M4">
-        <v>0.0500925661317389</v>
+        <v>0.05025590989055879</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -591,398 +634,486 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.702</v>
+        <v>1.812</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.141612176583427</t>
+          <t>0.128615316640211</t>
         </is>
       </c>
       <c r="E5">
-        <v>0.1122362119518364</v>
+        <v>0.1037783132149098</v>
       </c>
       <c r="F5">
-        <v>112801</v>
+        <v>105495</v>
       </c>
       <c r="G5">
-        <v>1.517371431339229</v>
+        <v>1.641284674761474</v>
       </c>
       <c r="H5">
-        <v>1.886628568660771</v>
+        <v>1.982715325238527</v>
       </c>
       <c r="I5">
         <v>38</v>
       </c>
       <c r="J5">
-        <v>1.519729108549158</v>
+        <v>1.645160533455741</v>
       </c>
       <c r="K5">
-        <v>1.883629084842454</v>
+        <v>1.975593389437062</v>
       </c>
       <c r="L5">
-        <v>1.701679096695806</v>
+        <v>1.810376961446402</v>
       </c>
       <c r="M5">
-        <v>0.07066018957151378</v>
+        <v>0.06416171960802348</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Legacy Left-Wing</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Model 1d</t>
+          <t>Model 1a</t>
         </is>
       </c>
       <c r="C6">
-        <v>-0.953</v>
+        <v>-0.007</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.119185203978157</t>
+          <t>0.109786837851994</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.1418767403086466</v>
+        <v>0.03508013478102524</v>
       </c>
       <c r="F6">
-        <v>112801</v>
+        <v>17877</v>
       </c>
       <c r="G6">
-        <v>-1.186387237807724</v>
+        <v>-0.06470682171478652</v>
       </c>
       <c r="H6">
-        <v>-0.7196127621922762</v>
+        <v>0.05070682171478651</v>
       </c>
       <c r="I6">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>-1.187340720945169</v>
+        <v>-0.06569102899000866</v>
       </c>
       <c r="K6">
-        <v>-0.7218328029367344</v>
+        <v>0.05193259133967901</v>
       </c>
       <c r="L6">
-        <v>-0.9545867619409516</v>
+        <v>-0.006879218825164821</v>
       </c>
       <c r="M6">
-        <v>0.09038988699192904</v>
+        <v>0.02283953792809469</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Legacy Right-Wing</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Model 1d</t>
+          <t>Model 1b</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.168</v>
+        <v>-0.365</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.141612176583427</t>
+          <t>0.0810811661067596</t>
         </is>
       </c>
       <c r="E7">
-        <v>0.1942372976544909</v>
+        <v>0.02412527269832829</v>
       </c>
       <c r="F7">
-        <v>112801</v>
+        <v>55488</v>
       </c>
       <c r="G7">
-        <v>-0.1515203546416375</v>
+        <v>-0.40468607358875</v>
       </c>
       <c r="H7">
-        <v>0.4875203546416375</v>
+        <v>-0.32531392641125</v>
       </c>
       <c r="I7">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>-0.1491848126525433</v>
+        <v>-0.4049917003009579</v>
       </c>
       <c r="K7">
-        <v>0.482359227744951</v>
+        <v>-0.3249958972570143</v>
       </c>
       <c r="L7">
-        <v>0.1665872075462039</v>
+        <v>-0.3649937987789861</v>
       </c>
       <c r="M7">
-        <v>0.122629910756795</v>
+        <v>0.0155331656396007</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Left-Right</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Model 1a</t>
+          <t>Model 1c</t>
         </is>
       </c>
       <c r="C8">
-        <v>-0.651</v>
+        <v>0.065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.135538439536458</t>
+          <t>0.0785632550862939</t>
         </is>
       </c>
       <c r="E8">
-        <v>0.02928303042742726</v>
+        <v>0.02741684820586976</v>
       </c>
       <c r="F8">
-        <v>18058</v>
+        <v>32130</v>
       </c>
       <c r="G8">
-        <v>-0.6991705850531179</v>
+        <v>0.01989928470134425</v>
       </c>
       <c r="H8">
-        <v>-0.6028294149468821</v>
+        <v>0.1101007152986558</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>-0.6990152307737283</v>
+        <v>0.02001654081014408</v>
       </c>
       <c r="K8">
-        <v>-0.6031904216960248</v>
+        <v>0.1106594136503214</v>
       </c>
       <c r="L8">
-        <v>-0.6511028262348766</v>
+        <v>0.06533797723023273</v>
       </c>
       <c r="M8">
-        <v>0.01860675904421428</v>
+        <v>0.01760055783304414</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Left-Right</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Model 1b</t>
+          <t>Model 1d</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.415</v>
+        <v>-0.144</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0844581046655242</t>
+          <t>0.124838248068265</t>
         </is>
       </c>
       <c r="E9">
-        <v>0.01613191260240675</v>
+        <v>0.01627118319622274</v>
       </c>
       <c r="F9">
-        <v>61135</v>
+        <v>105495</v>
       </c>
       <c r="G9">
-        <v>0.3884630037690409</v>
+        <v>-0.1707660963577864</v>
       </c>
       <c r="H9">
-        <v>0.4415369962309591</v>
+        <v>-0.1172339036422136</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J9">
-        <v>0.3880951662336471</v>
+        <v>-0.1712394107899949</v>
       </c>
       <c r="K9">
-        <v>0.4412719477629444</v>
+        <v>-0.1173383063002128</v>
       </c>
       <c r="L9">
-        <v>0.4146835569982957</v>
+        <v>-0.1442888585451039</v>
       </c>
       <c r="M9">
-        <v>0.01032558864646548</v>
+        <v>0.01046623388151109</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Left-Right</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Model 1c</t>
+          <t>Model 1a</t>
         </is>
       </c>
       <c r="C10">
-        <v>-0.318</v>
+        <v>0.173</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0756219277897171</t>
+          <t>0.109786837851994</t>
         </is>
       </c>
       <c r="E10">
-        <v>0.02307998937078407</v>
+        <v>0.01913072501512775</v>
       </c>
       <c r="F10">
-        <v>33608</v>
+        <v>17877</v>
       </c>
       <c r="G10">
-        <v>-0.3559665825149398</v>
+        <v>0.1415299573501148</v>
       </c>
       <c r="H10">
-        <v>-0.2800334174850602</v>
+        <v>0.2044700426498851</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-0.3560898094543019</v>
+        <v>0.1403006126684486</v>
       </c>
       <c r="K10">
-        <v>-0.2797901853695753</v>
+        <v>0.2039706299977605</v>
       </c>
       <c r="L10">
-        <v>-0.3179399974119386</v>
+        <v>0.1721356213331046</v>
       </c>
       <c r="M10">
-        <v>0.01481546098732555</v>
+        <v>0.01236311016103143</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Left-Right</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Model 1d</t>
+          <t>Model 1b</t>
         </is>
       </c>
       <c r="C11">
-        <v>-0.251</v>
+        <v>0.292</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.129266422209217</t>
+          <t>0.0810811661067596</t>
         </is>
       </c>
       <c r="E11">
-        <v>0.1086386803931621</v>
+        <v>0.01278016035775211</v>
       </c>
       <c r="F11">
-        <v>112801</v>
+        <v>55488</v>
       </c>
       <c r="G11">
-        <v>-0.4297106292467517</v>
+        <v>0.2709766362114978</v>
       </c>
       <c r="H11">
-        <v>-0.07228937075324826</v>
+        <v>0.3130233637885022</v>
       </c>
       <c r="I11">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J11">
-        <v>-0.4291845711396449</v>
+        <v>0.2714976394904856</v>
       </c>
       <c r="K11">
-        <v>-0.07328749783084894</v>
+        <v>0.3136482483491139</v>
       </c>
       <c r="L11">
-        <v>-0.2512360344852469</v>
+        <v>0.2925729439197997</v>
       </c>
       <c r="M11">
-        <v>0.06910622782695067</v>
+        <v>0.008184584244393858</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Left-Right * Left-Wing</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Model 1d</t>
+          <t>Model 1c</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.623</v>
+        <v>0.387</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.129266422209217</t>
+          <t>0.0785632550862939</t>
         </is>
       </c>
       <c r="E12">
-        <v>0.1370310184582008</v>
+        <v>0.01456523292771531</v>
       </c>
       <c r="F12">
-        <v>112801</v>
+        <v>32130</v>
       </c>
       <c r="G12">
-        <v>0.3975839746362597</v>
+        <v>0.3630401918339083</v>
       </c>
       <c r="H12">
-        <v>0.8484160253637403</v>
+        <v>0.4109598081660917</v>
       </c>
       <c r="I12">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>0.3973132503295928</v>
+        <v>0.3627662784004849</v>
       </c>
       <c r="K12">
-        <v>0.8469124099380926</v>
+        <v>0.4110303462208405</v>
       </c>
       <c r="L12">
-        <v>0.6221128301338427</v>
+        <v>0.3868983123106627</v>
       </c>
       <c r="M12">
-        <v>0.08730080769097083</v>
+        <v>0.009371663654437977</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Left-Right * Right-Wing</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -991,42 +1122,2676 @@
         </is>
       </c>
       <c r="C13">
-        <v>-0.322</v>
+        <v>0.305</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.119185203978157</t>
+          <t>-0.102597411262751</t>
         </is>
       </c>
       <c r="E13">
-        <v>0.1878650541877792</v>
+        <v>0.00865563850457194</v>
       </c>
       <c r="F13">
-        <v>112801</v>
+        <v>105495</v>
       </c>
       <c r="G13">
-        <v>-0.6310380141388968</v>
+        <v>0.2907614746599791</v>
       </c>
       <c r="H13">
-        <v>-0.0129619858611032</v>
+        <v>0.3192385253400208</v>
       </c>
       <c r="I13">
         <v>38</v>
       </c>
       <c r="J13">
+        <v>0.2901964916287748</v>
+      </c>
+      <c r="K13">
+        <v>0.3178953617348812</v>
+      </c>
+      <c r="L13">
+        <v>0.304045926681828</v>
+      </c>
+      <c r="M13">
+        <v>0.005378421379826482</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Legacy: Left-Wing</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>-0.892</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-0.102597411262751</t>
+        </is>
+      </c>
+      <c r="E14">
+        <v>0.1304675345844536</v>
+      </c>
+      <c r="F14">
+        <v>105495</v>
+      </c>
+      <c r="G14">
+        <v>-1.106619094391426</v>
+      </c>
+      <c r="H14">
+        <v>-0.6773809056085739</v>
+      </c>
+      <c r="I14">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>-1.099077934574413</v>
+      </c>
+      <c r="K14">
+        <v>-0.6895725107160365</v>
+      </c>
+      <c r="L14">
+        <v>-0.8943252226452247</v>
+      </c>
+      <c r="M14">
+        <v>0.07951561628317985</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Legacy: Right-Wing</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0.191</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.128615316640211</t>
+        </is>
+      </c>
+      <c r="E15">
+        <v>0.1785053454107153</v>
+      </c>
+      <c r="F15">
+        <v>105495</v>
+      </c>
+      <c r="G15">
+        <v>-0.1026412932006267</v>
+      </c>
+      <c r="H15">
+        <v>0.4846412932006267</v>
+      </c>
+      <c r="I15">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>-0.1040823339682052</v>
+      </c>
+      <c r="K15">
+        <v>0.480802723691091</v>
+      </c>
+      <c r="L15">
+        <v>0.1883601948614429</v>
+      </c>
+      <c r="M15">
+        <v>0.1135699141086012</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Left-Right</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Model 1a</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>-0.589</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.109786837851994</t>
+        </is>
+      </c>
+      <c r="E16">
+        <v>0.02900097998158037</v>
+      </c>
+      <c r="F16">
+        <v>17877</v>
+      </c>
+      <c r="G16">
+        <v>-0.6367066120696997</v>
+      </c>
+      <c r="H16">
+        <v>-0.5412933879303002</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
+        <v>-0.6363575633832043</v>
+      </c>
+      <c r="K16">
+        <v>-0.5414366840375616</v>
+      </c>
+      <c r="L16">
+        <v>-0.5888971237103829</v>
+      </c>
+      <c r="M16">
+        <v>0.01843123870789177</v>
+      </c>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Left-Right</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0.389</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="E17">
+        <v>0.01654970555267945</v>
+      </c>
+      <c r="F17">
+        <v>55488</v>
+      </c>
+      <c r="G17">
+        <v>0.3617757343658423</v>
+      </c>
+      <c r="H17">
+        <v>0.4162242656341577</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0.3634452077279091</v>
+      </c>
+      <c r="K17">
+        <v>0.4164527281525922</v>
+      </c>
+      <c r="L17">
+        <v>0.3899489679402506</v>
+      </c>
+      <c r="M17">
+        <v>0.01029272241255983</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Left-Right</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>-0.325</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="E18">
+        <v>0.02219912530737515</v>
+      </c>
+      <c r="F18">
+        <v>32130</v>
+      </c>
+      <c r="G18">
+        <v>-0.3615175611306322</v>
+      </c>
+      <c r="H18">
+        <v>-0.2884824388693679</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>-0.3610251302941943</v>
+      </c>
+      <c r="K18">
+        <v>-0.2882449408012927</v>
+      </c>
+      <c r="L18">
+        <v>-0.3246350355477435</v>
+      </c>
+      <c r="M18">
+        <v>0.01413207562968963</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Left-Right</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>-0.239</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.124838248068265</t>
+        </is>
+      </c>
+      <c r="E19">
+        <v>0.1035949760193604</v>
+      </c>
+      <c r="F19">
+        <v>105495</v>
+      </c>
+      <c r="G19">
+        <v>-0.4094137355518479</v>
+      </c>
+      <c r="H19">
+        <v>-0.06858626444815205</v>
+      </c>
+      <c r="I19">
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <v>-0.402945294190369</v>
+      </c>
+      <c r="K19">
+        <v>-0.07590872233402743</v>
+      </c>
+      <c r="L19">
+        <v>-0.2394270082621982</v>
+      </c>
+      <c r="M19">
+        <v>0.0635022469623964</v>
+      </c>
+      <c r="N19">
+        <v>14</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Left-Right*Left-Wing</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>0.571</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.128615316640211</t>
+        </is>
+      </c>
+      <c r="E20">
+        <v>0.1307651844314123</v>
+      </c>
+      <c r="F20">
+        <v>105495</v>
+      </c>
+      <c r="G20">
+        <v>0.3558912716103266</v>
+      </c>
+      <c r="H20">
+        <v>0.7861087283896733</v>
+      </c>
+      <c r="I20">
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <v>0.3699481906259242</v>
+      </c>
+      <c r="K20">
+        <v>0.7881778124106856</v>
+      </c>
+      <c r="L20">
+        <v>0.5790630015183049</v>
+      </c>
+      <c r="M20">
+        <v>0.08120963529801192</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Left-Right*Right-Wing</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>-0.26</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.124838248068265</t>
+        </is>
+      </c>
+      <c r="E21">
+        <v>0.1790310012811109</v>
+      </c>
+      <c r="F21">
+        <v>105495</v>
+      </c>
+      <c r="G21">
+        <v>-0.5545059971074274</v>
+      </c>
+      <c r="H21">
+        <v>0.03450599710742741</v>
+      </c>
+      <c r="I21">
+        <v>38</v>
+      </c>
+      <c r="J21">
+        <v>-0.5500115664185639</v>
+      </c>
+      <c r="K21">
+        <v>0.0299554081484409</v>
+      </c>
+      <c r="L21">
+        <v>-0.2600280791350615</v>
+      </c>
+      <c r="M21">
+        <v>0.112614946517865</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Political Interest</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Model 1a</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>-0.355</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.109786837851994</t>
+        </is>
+      </c>
+      <c r="E22">
+        <v>0.02179640376058222</v>
+      </c>
+      <c r="F22">
+        <v>17877</v>
+      </c>
+      <c r="G22">
+        <v>-0.3908550841861577</v>
+      </c>
+      <c r="H22">
+        <v>-0.3191449158138422</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>-0.3909779072787767</v>
+      </c>
+      <c r="K22">
+        <v>-0.3192286061484766</v>
+      </c>
+      <c r="L22">
+        <v>-0.3551032567136266</v>
+      </c>
+      <c r="M22">
+        <v>0.01393190313209712</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Political Interest</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>-0.299</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="E23">
+        <v>0.01479126976523935</v>
+      </c>
+      <c r="F23">
+        <v>55488</v>
+      </c>
+      <c r="G23">
+        <v>-0.3233316387638187</v>
+      </c>
+      <c r="H23">
+        <v>-0.2746683612361813</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>-0.3230198561373474</v>
+      </c>
+      <c r="K23">
+        <v>-0.2736911077604739</v>
+      </c>
+      <c r="L23">
+        <v>-0.2983554819489107</v>
+      </c>
+      <c r="M23">
+        <v>0.009578397743082234</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Political Interest</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>-0.789</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="E24">
+        <v>0.01714843936538139</v>
+      </c>
+      <c r="F24">
+        <v>32130</v>
+      </c>
+      <c r="G24">
+        <v>-0.8172091827560524</v>
+      </c>
+      <c r="H24">
+        <v>-0.7607908172439477</v>
+      </c>
+      <c r="I24">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>-0.8164918261776647</v>
+      </c>
+      <c r="K24">
+        <v>-0.7606176049645914</v>
+      </c>
+      <c r="L24">
+        <v>-0.7885547155711281</v>
+      </c>
+      <c r="M24">
+        <v>0.01084936334234433</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Political Interest</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>-0.458</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.128615316640211</t>
+        </is>
+      </c>
+      <c r="E25">
+        <v>0.01004649655726492</v>
+      </c>
+      <c r="F25">
+        <v>105495</v>
+      </c>
+      <c r="G25">
+        <v>-0.4745264868367008</v>
+      </c>
+      <c r="H25">
+        <v>-0.4414735131632992</v>
+      </c>
+      <c r="I25">
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <v>-0.4741714077715612</v>
+      </c>
+      <c r="K25">
+        <v>-0.4410097229261298</v>
+      </c>
+      <c r="L25">
+        <v>-0.4575905653488455</v>
+      </c>
+      <c r="M25">
+        <v>0.006439162105909012</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sex:Male</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Model 1a</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>-0.044</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.109786837851994</t>
+        </is>
+      </c>
+      <c r="E26">
+        <v>0.01297828236770344</v>
+      </c>
+      <c r="F26">
+        <v>17877</v>
+      </c>
+      <c r="G26">
+        <v>-0.06534927449487216</v>
+      </c>
+      <c r="H26">
+        <v>-0.02265072550512784</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>-0.0647596741907715</v>
+      </c>
+      <c r="K26">
+        <v>-0.02233139786222964</v>
+      </c>
+      <c r="L26">
+        <v>-0.04354553602650057</v>
+      </c>
+      <c r="M26">
+        <v>0.008238500257969293</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sex:Male</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>0.014</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="E27">
+        <v>0.008359596027554048</v>
+      </c>
+      <c r="F27">
+        <v>55488</v>
+      </c>
+      <c r="G27">
+        <v>0.0002484645346735904</v>
+      </c>
+      <c r="H27">
+        <v>0.02775153546532641</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>7.094454671169389e-05</v>
+      </c>
+      <c r="K27">
+        <v>0.02734442720134557</v>
+      </c>
+      <c r="L27">
+        <v>0.01370768587402863</v>
+      </c>
+      <c r="M27">
+        <v>0.005295821874686189</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sex:Male</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>0.05</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="E28">
+        <v>0.009844321487365165</v>
+      </c>
+      <c r="F28">
+        <v>32130</v>
+      </c>
+      <c r="G28">
+        <v>0.03380609115328431</v>
+      </c>
+      <c r="H28">
+        <v>0.06619390884671569</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <v>0.03372554716130099</v>
+      </c>
+      <c r="K28">
+        <v>0.0658466079104532</v>
+      </c>
+      <c r="L28">
+        <v>0.04978607753587709</v>
+      </c>
+      <c r="M28">
+        <v>0.006237099174592662</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sex:Male</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>0.014</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.124838248068265</t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>0.005768771990899003</v>
+      </c>
+      <c r="F29">
+        <v>105495</v>
+      </c>
+      <c r="G29">
+        <v>0.00451037007497114</v>
+      </c>
+      <c r="H29">
+        <v>0.02348962992502886</v>
+      </c>
+      <c r="I29">
+        <v>38</v>
+      </c>
+      <c r="J29">
+        <v>0.004428443933117004</v>
+      </c>
+      <c r="K29">
+        <v>0.0232135961646832</v>
+      </c>
+      <c r="L29">
+        <v>0.0138210200489001</v>
+      </c>
+      <c r="M29">
+        <v>0.003647602375061397</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EVS 2008</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Model 1a</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>-0.059</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.109786837851994</t>
+        </is>
+      </c>
+      <c r="E30">
+        <v>0.01527798735919149</v>
+      </c>
+      <c r="F30">
+        <v>17877</v>
+      </c>
+      <c r="G30">
+        <v>-0.08413228920587</v>
+      </c>
+      <c r="H30">
+        <v>-0.03386771079412999</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>-0.0835923965089652</v>
+      </c>
+      <c r="K30">
+        <v>-0.03392799145906189</v>
+      </c>
+      <c r="L30">
+        <v>-0.05876019398401355</v>
+      </c>
+      <c r="M30">
+        <v>0.00964357379609773</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EVS 2008</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>-0.138</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="E31">
+        <v>0.01492129194477103</v>
+      </c>
+      <c r="F31">
+        <v>55488</v>
+      </c>
+      <c r="G31">
+        <v>-0.1625455252491483</v>
+      </c>
+      <c r="H31">
+        <v>-0.1134544747508517</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>-0.1636548564513153</v>
+      </c>
+      <c r="K31">
+        <v>-0.1135961545190008</v>
+      </c>
+      <c r="L31">
+        <v>-0.1386255054851581</v>
+      </c>
+      <c r="M31">
+        <v>0.009720136297536796</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>EVS 2008</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>-0.139</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="E32">
+        <v>0.01264080065724252</v>
+      </c>
+      <c r="F32">
+        <v>32130</v>
+      </c>
+      <c r="G32">
+        <v>-0.1597941170811639</v>
+      </c>
+      <c r="H32">
+        <v>-0.1182058829188361</v>
+      </c>
+      <c r="I32">
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <v>-0.1603159059217125</v>
+      </c>
+      <c r="K32">
+        <v>-0.1184193490606502</v>
+      </c>
+      <c r="L32">
+        <v>-0.1393676274911814</v>
+      </c>
+      <c r="M32">
+        <v>0.008135253759429579</v>
+      </c>
+      <c r="N32">
+        <v>6</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EVS 2008</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>-0.106</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-0.102597411262751</t>
+        </is>
+      </c>
+      <c r="E33">
+        <v>0.008332330897955476</v>
+      </c>
+      <c r="F33">
+        <v>105495</v>
+      </c>
+      <c r="G33">
+        <v>-0.1197066843271368</v>
+      </c>
+      <c r="H33">
+        <v>-0.09229331567286324</v>
+      </c>
+      <c r="I33">
+        <v>38</v>
+      </c>
+      <c r="J33">
+        <v>-0.1190988381262149</v>
+      </c>
+      <c r="K33">
+        <v>-0.09117814456064433</v>
+      </c>
+      <c r="L33">
+        <v>-0.1051384913434296</v>
+      </c>
+      <c r="M33">
+        <v>0.00542149389622729</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WVS 1994</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Model 1a</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>-0.15</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.109786837851994</t>
+        </is>
+      </c>
+      <c r="E34">
+        <v>0.02556068738474944</v>
+      </c>
+      <c r="F34">
+        <v>17877</v>
+      </c>
+      <c r="G34">
+        <v>-0.1920473307479128</v>
+      </c>
+      <c r="H34">
+        <v>-0.1079526692520872</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>-0.1916593078131297</v>
+      </c>
+      <c r="K34">
+        <v>-0.1088213743741335</v>
+      </c>
+      <c r="L34">
+        <v>-0.1502403410936316</v>
+      </c>
+      <c r="M34">
+        <v>0.01608503561922256</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WVS 1994</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>-0.094</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="E35">
+        <v>0.01500996242349729</v>
+      </c>
+      <c r="F35">
+        <v>55488</v>
+      </c>
+      <c r="G35">
+        <v>-0.118691388186653</v>
+      </c>
+      <c r="H35">
+        <v>-0.06930861181334697</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>-0.1176157820764542</v>
+      </c>
+      <c r="K35">
+        <v>-0.0692798654765662</v>
+      </c>
+      <c r="L35">
+        <v>-0.09344782377651017</v>
+      </c>
+      <c r="M35">
+        <v>0.009385614873764653</v>
+      </c>
+      <c r="N35">
+        <v>7</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WVS 1994</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>-0.247</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="E36">
+        <v>0.02088511705940227</v>
+      </c>
+      <c r="F36">
+        <v>32130</v>
+      </c>
+      <c r="G36">
+        <v>-0.2813560175627167</v>
+      </c>
+      <c r="H36">
+        <v>-0.2126439824372833</v>
+      </c>
+      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="J36">
+        <v>-0.2821065140751577</v>
+      </c>
+      <c r="K36">
+        <v>-0.2128377199667022</v>
+      </c>
+      <c r="L36">
+        <v>-0.2474721170209299</v>
+      </c>
+      <c r="M36">
+        <v>0.01345025128319524</v>
+      </c>
+      <c r="N36">
+        <v>7</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>WVS 1994</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>-0.103</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.128615316640211</t>
+        </is>
+      </c>
+      <c r="E37">
+        <v>0.01008306006889319</v>
+      </c>
+      <c r="F37">
+        <v>105495</v>
+      </c>
+      <c r="G37">
+        <v>-0.1195866338133293</v>
+      </c>
+      <c r="H37">
+        <v>-0.0864133661866707</v>
+      </c>
+      <c r="I37">
+        <v>38</v>
+      </c>
+      <c r="J37">
+        <v>-0.1195109857457969</v>
+      </c>
+      <c r="K37">
+        <v>-0.08670813133984477</v>
+      </c>
+      <c r="L37">
+        <v>-0.1031095585428208</v>
+      </c>
+      <c r="M37">
+        <v>0.006369486292417891</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>WVS 1999</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Model 1a</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>0.068</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.109786837851994</t>
+        </is>
+      </c>
+      <c r="E38">
+        <v>0.03369779570038187</v>
+      </c>
+      <c r="F38">
+        <v>17877</v>
+      </c>
+      <c r="G38">
+        <v>0.01256712607287182</v>
+      </c>
+      <c r="H38">
+        <v>0.1234328739271282</v>
+      </c>
+      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>0.01357141906188212</v>
+      </c>
+      <c r="K38">
+        <v>0.1245330454349855</v>
+      </c>
+      <c r="L38">
+        <v>0.06905223224843381</v>
+      </c>
+      <c r="M38">
+        <v>0.02154594686856376</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WVS 1999</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>0.193</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="E39">
+        <v>0.0220727294712752</v>
+      </c>
+      <c r="F39">
+        <v>55488</v>
+      </c>
+      <c r="G39">
+        <v>0.1566903600197523</v>
+      </c>
+      <c r="H39">
+        <v>0.2293096399802477</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>0.1561192467040541</v>
+      </c>
+      <c r="K39">
+        <v>0.2292657632182414</v>
+      </c>
+      <c r="L39">
+        <v>0.1926925049611477</v>
+      </c>
+      <c r="M39">
+        <v>0.01420320709013347</v>
+      </c>
+      <c r="N39">
+        <v>8</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>WVS 1999</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>0.18</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.124838248068265</t>
+        </is>
+      </c>
+      <c r="E40">
+        <v>0.01654601227902841</v>
+      </c>
+      <c r="F40">
+        <v>105495</v>
+      </c>
+      <c r="G40">
+        <v>0.1527818098009983</v>
+      </c>
+      <c r="H40">
+        <v>0.2072181901990017</v>
+      </c>
+      <c r="I40">
+        <v>38</v>
+      </c>
+      <c r="J40">
+        <v>0.1522220043914327</v>
+      </c>
+      <c r="K40">
+        <v>0.2081125383606854</v>
+      </c>
+      <c r="L40">
+        <v>0.180167271376059</v>
+      </c>
+      <c r="M40">
+        <v>0.01085253086781605</v>
+      </c>
+      <c r="N40">
+        <v>8</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>WVS 2005</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Model 1a</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>0.399</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.109786837851994</t>
+        </is>
+      </c>
+      <c r="E41">
+        <v>0.02192011013000984</v>
+      </c>
+      <c r="F41">
+        <v>17877</v>
+      </c>
+      <c r="G41">
+        <v>0.3629414188361338</v>
+      </c>
+      <c r="H41">
+        <v>0.4350585811638662</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>0.3636926365370485</v>
+      </c>
+      <c r="K41">
+        <v>0.4356713518062275</v>
+      </c>
+      <c r="L41">
+        <v>0.399681994171638</v>
+      </c>
+      <c r="M41">
+        <v>0.01397644956683087</v>
+      </c>
+      <c r="N41">
+        <v>9</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WVS 2005</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>0.166</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.0810811661067596</t>
+        </is>
+      </c>
+      <c r="E42">
+        <v>0.01924403826295021</v>
+      </c>
+      <c r="F42">
+        <v>55488</v>
+      </c>
+      <c r="G42">
+        <v>0.1343435570574469</v>
+      </c>
+      <c r="H42">
+        <v>0.1976564429425531</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>0.1343087526477965</v>
+      </c>
+      <c r="K42">
+        <v>0.1980648700273276</v>
+      </c>
+      <c r="L42">
+        <v>0.1661868113375621</v>
+      </c>
+      <c r="M42">
+        <v>0.0123798286173847</v>
+      </c>
+      <c r="N42">
+        <v>9</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>WVS 2005</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>0.304</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.0785632550862939</t>
+        </is>
+      </c>
+      <c r="E43">
+        <v>0.01654853406312838</v>
+      </c>
+      <c r="F43">
+        <v>32130</v>
+      </c>
+      <c r="G43">
+        <v>0.2767776614661538</v>
+      </c>
+      <c r="H43">
+        <v>0.3312223385338462</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>0.2773411069635675</v>
+      </c>
+      <c r="K43">
+        <v>0.3313036186559761</v>
+      </c>
+      <c r="L43">
+        <v>0.3043223628097718</v>
+      </c>
+      <c r="M43">
+        <v>0.01047815761017644</v>
+      </c>
+      <c r="N43">
+        <v>9</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>WVS 2005</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>0.299</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>-0.102597411262751</t>
+        </is>
+      </c>
+      <c r="E44">
+        <v>0.01099273797156308</v>
+      </c>
+      <c r="F44">
+        <v>105495</v>
+      </c>
+      <c r="G44">
+        <v>0.2809169460367787</v>
+      </c>
+      <c r="H44">
+        <v>0.3170830539632212</v>
+      </c>
+      <c r="I44">
+        <v>38</v>
+      </c>
+      <c r="J44">
+        <v>0.2809779106301056</v>
+      </c>
+      <c r="K44">
+        <v>0.3176268690014749</v>
+      </c>
+      <c r="L44">
+        <v>0.2993023898157903</v>
+      </c>
+      <c r="M44">
+        <v>0.007116302596382395</v>
+      </c>
+      <c r="N44">
+        <v>9</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Conditional</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Model 1a</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>1.909</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.135538439536458</t>
+        </is>
+      </c>
+      <c r="E45">
+        <v>0.142301092922968</v>
+      </c>
+      <c r="F45">
+        <v>18058</v>
+      </c>
+      <c r="G45">
+        <v>1.674914702141718</v>
+      </c>
+      <c r="H45">
+        <v>2.143085297858282</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>1.671242947453375</v>
+      </c>
+      <c r="K45">
+        <v>2.143361410431206</v>
+      </c>
+      <c r="L45">
+        <v>1.90730217894229</v>
+      </c>
+      <c r="M45">
+        <v>0.09167348795686056</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>0.729</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.0844581046655242</t>
+        </is>
+      </c>
+      <c r="E46">
+        <v>0.06758662120045676</v>
+      </c>
+      <c r="F46">
+        <v>61135</v>
+      </c>
+      <c r="G46">
+        <v>0.6178200081252486</v>
+      </c>
+      <c r="H46">
+        <v>0.8401799918747513</v>
+      </c>
+      <c r="I46">
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <v>0.6172347262835062</v>
+      </c>
+      <c r="K46">
+        <v>0.8409320784181419</v>
+      </c>
+      <c r="L46">
+        <v>0.729083402350824</v>
+      </c>
+      <c r="M46">
+        <v>0.04343637905526906</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>1.74</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.0756219277897171</t>
+        </is>
+      </c>
+      <c r="E47">
+        <v>0.07815239278728524</v>
+      </c>
+      <c r="F47">
+        <v>33608</v>
+      </c>
+      <c r="G47">
+        <v>1.611439313864916</v>
+      </c>
+      <c r="H47">
+        <v>1.868560686135084</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>1.611423865235291</v>
+      </c>
+      <c r="K47">
+        <v>1.869400580813747</v>
+      </c>
+      <c r="L47">
+        <v>1.740412223024519</v>
+      </c>
+      <c r="M47">
+        <v>0.0500925661317389</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>1.702</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.141612176583427</t>
+        </is>
+      </c>
+      <c r="E48">
+        <v>0.1122362119518364</v>
+      </c>
+      <c r="F48">
+        <v>112801</v>
+      </c>
+      <c r="G48">
+        <v>1.517371431339229</v>
+      </c>
+      <c r="H48">
+        <v>1.886628568660771</v>
+      </c>
+      <c r="I48">
+        <v>38</v>
+      </c>
+      <c r="J48">
+        <v>1.519729108549158</v>
+      </c>
+      <c r="K48">
+        <v>1.883629084842454</v>
+      </c>
+      <c r="L48">
+        <v>1.701679096695806</v>
+      </c>
+      <c r="M48">
+        <v>0.07066018957151378</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Legacy: Left-Wing</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>-0.953</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-0.119185203978157</t>
+        </is>
+      </c>
+      <c r="E49">
+        <v>0.1418767403086466</v>
+      </c>
+      <c r="F49">
+        <v>112801</v>
+      </c>
+      <c r="G49">
+        <v>-1.186387237807724</v>
+      </c>
+      <c r="H49">
+        <v>-0.7196127621922762</v>
+      </c>
+      <c r="I49">
+        <v>38</v>
+      </c>
+      <c r="J49">
+        <v>-1.187340720945169</v>
+      </c>
+      <c r="K49">
+        <v>-0.7218328029367344</v>
+      </c>
+      <c r="L49">
+        <v>-0.9545867619409516</v>
+      </c>
+      <c r="M49">
+        <v>0.09038988699192904</v>
+      </c>
+      <c r="N49">
+        <v>12</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Legacy: Right-Wing</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>0.168</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.141612176583427</t>
+        </is>
+      </c>
+      <c r="E50">
+        <v>0.1942372976544909</v>
+      </c>
+      <c r="F50">
+        <v>112801</v>
+      </c>
+      <c r="G50">
+        <v>-0.1515203546416375</v>
+      </c>
+      <c r="H50">
+        <v>0.4875203546416375</v>
+      </c>
+      <c r="I50">
+        <v>38</v>
+      </c>
+      <c r="J50">
+        <v>-0.1491848126525433</v>
+      </c>
+      <c r="K50">
+        <v>0.482359227744951</v>
+      </c>
+      <c r="L50">
+        <v>0.1665872075462039</v>
+      </c>
+      <c r="M50">
+        <v>0.122629910756795</v>
+      </c>
+      <c r="N50">
+        <v>13</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Left-Right</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Model 1a</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>-0.651</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.135538439536458</t>
+        </is>
+      </c>
+      <c r="E51">
+        <v>0.02928303042742726</v>
+      </c>
+      <c r="F51">
+        <v>18058</v>
+      </c>
+      <c r="G51">
+        <v>-0.6991705850531179</v>
+      </c>
+      <c r="H51">
+        <v>-0.6028294149468821</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>-0.6990152307737283</v>
+      </c>
+      <c r="K51">
+        <v>-0.6031904216960248</v>
+      </c>
+      <c r="L51">
+        <v>-0.6511028262348766</v>
+      </c>
+      <c r="M51">
+        <v>0.01860675904421428</v>
+      </c>
+      <c r="N51">
+        <v>14</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Model 1a: Right-Wing
+Obs = 18,058; Countries = 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Left-Right</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Model 1b</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>0.415</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.0844581046655242</t>
+        </is>
+      </c>
+      <c r="E52">
+        <v>0.01613191260240675</v>
+      </c>
+      <c r="F52">
+        <v>61135</v>
+      </c>
+      <c r="G52">
+        <v>0.3884630037690409</v>
+      </c>
+      <c r="H52">
+        <v>0.4415369962309591</v>
+      </c>
+      <c r="I52">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>0.3880951662336471</v>
+      </c>
+      <c r="K52">
+        <v>0.4412719477629444</v>
+      </c>
+      <c r="L52">
+        <v>0.4146835569982957</v>
+      </c>
+      <c r="M52">
+        <v>0.01032558864646548</v>
+      </c>
+      <c r="N52">
+        <v>14</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Model 1b: Left-Wing
+Obs = 61,135; Countries = 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Left-Right</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Model 1c</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>-0.318</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.0756219277897171</t>
+        </is>
+      </c>
+      <c r="E53">
+        <v>0.02307998937078407</v>
+      </c>
+      <c r="F53">
+        <v>33608</v>
+      </c>
+      <c r="G53">
+        <v>-0.3559665825149398</v>
+      </c>
+      <c r="H53">
+        <v>-0.2800334174850602</v>
+      </c>
+      <c r="I53">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>-0.3560898094543019</v>
+      </c>
+      <c r="K53">
+        <v>-0.2797901853695753</v>
+      </c>
+      <c r="L53">
+        <v>-0.3179399974119386</v>
+      </c>
+      <c r="M53">
+        <v>0.01481546098732555</v>
+      </c>
+      <c r="N53">
+        <v>14</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Model 1c: Democratic
+Obs = 33,608; Countries = 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Left-Right</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>-0.251</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.129266422209217</t>
+        </is>
+      </c>
+      <c r="E54">
+        <v>0.1086386803931621</v>
+      </c>
+      <c r="F54">
+        <v>112801</v>
+      </c>
+      <c r="G54">
+        <v>-0.4297106292467517</v>
+      </c>
+      <c r="H54">
+        <v>-0.07228937075324826</v>
+      </c>
+      <c r="I54">
+        <v>38</v>
+      </c>
+      <c r="J54">
+        <v>-0.4291845711396449</v>
+      </c>
+      <c r="K54">
+        <v>-0.07328749783084894</v>
+      </c>
+      <c r="L54">
+        <v>-0.2512360344852469</v>
+      </c>
+      <c r="M54">
+        <v>0.06910622782695067</v>
+      </c>
+      <c r="N54">
+        <v>14</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Left-Right*Left-Wing</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>0.623</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.129266422209217</t>
+        </is>
+      </c>
+      <c r="E55">
+        <v>0.1370310184582008</v>
+      </c>
+      <c r="F55">
+        <v>112801</v>
+      </c>
+      <c r="G55">
+        <v>0.3975839746362597</v>
+      </c>
+      <c r="H55">
+        <v>0.8484160253637403</v>
+      </c>
+      <c r="I55">
+        <v>38</v>
+      </c>
+      <c r="J55">
+        <v>0.3973132503295928</v>
+      </c>
+      <c r="K55">
+        <v>0.8469124099380926</v>
+      </c>
+      <c r="L55">
+        <v>0.6221128301338427</v>
+      </c>
+      <c r="M55">
+        <v>0.08730080769097083</v>
+      </c>
+      <c r="N55">
+        <v>11</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Left-Right*Right-Wing</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Model 1d</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>-0.322</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>-0.119185203978157</t>
+        </is>
+      </c>
+      <c r="E56">
+        <v>0.1878650541877792</v>
+      </c>
+      <c r="F56">
+        <v>112801</v>
+      </c>
+      <c r="G56">
+        <v>-0.6310380141388968</v>
+      </c>
+      <c r="H56">
+        <v>-0.0129619858611032</v>
+      </c>
+      <c r="I56">
+        <v>38</v>
+      </c>
+      <c r="J56">
         <v>-0.6278631030411959</v>
       </c>
-      <c r="K13">
+      <c r="K56">
         <v>-0.02166716074676441</v>
       </c>
-      <c r="L13">
+      <c r="L56">
         <v>-0.3247651318939802</v>
       </c>
-      <c r="M13">
+      <c r="M56">
         <v>0.1177079499600838</v>
       </c>
-      <c r="N13">
-        <v>1</v>
+      <c r="N56">
+        <v>10</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Unconditional</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Model 1d: Pooled
+Obs = 112,801; Countries = 38</t>
+        </is>
       </c>
     </row>
   </sheetData>
